--- a/Current_Workspace/linearPri.xlsx
+++ b/Current_Workspace/linearPri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.c.larson\Documents\GitHub\SMART_UAV_disaster_algorithm_1\Current_Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E331F-AF50-4A28-932A-2EC72E13B0AB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B644BF-1198-4618-A891-466E5C29B303}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="2" xr2:uid="{C1D68B56-27D0-499B-B347-BA8C764C9F28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="1" xr2:uid="{C1D68B56-27D0-499B-B347-BA8C764C9F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1413">
   <si>
     <t>Completed</t>
   </si>
@@ -4260,6 +4260,12 @@
   </si>
   <si>
     <t>Simulation 100 Zone 13</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>ST Dev</t>
   </si>
 </sst>
 </file>
@@ -4623,10 +4629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E62635-8658-40E5-A7BE-6DC49ABC7D40}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8161,6 +8167,96 @@
       </c>
       <c r="K101">
         <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B102">
+        <f>AVERAGE(B1:B101)</f>
+        <v>107.39</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:K102" si="0">AVERAGE(C1:C101)</f>
+        <v>22.56</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>1.062890368938513</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>0.46101290743288925</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>1.171503347738541</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="0"/>
+        <v>62.74</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="0"/>
+        <v>45.54</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="0"/>
+        <v>108.28</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="0"/>
+        <v>790.9</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="0"/>
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B103">
+        <f>_xlfn.STDEV.S(B1:B101)</f>
+        <v>3.7896589756223649</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:K103" si="1">_xlfn.STDEV.S(C1:C101)</f>
+        <v>7.5308389541627667</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0.13343535996539671</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>6.2931537024147652E-2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.14809043669506047</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>2.1863673113642235</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>3.8308160377589928</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>4.0702914793995699</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>20.127121257174618</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>5.6331988508243942</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311563C7-C5D0-4198-AB2E-8517DFA7530A}">
   <dimension ref="A1:F1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A431" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A1301"/>
     </sheetView>
   </sheetViews>
